--- a/data/trans_dic/P3A$otraNOcobra-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraNOcobra-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.003912799430411048</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.005571506989365992</v>
+        <v>0.005571506989365991</v>
       </c>
     </row>
     <row r="5">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03474102117339792</v>
+        <v>0.03473772484044749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02101370583188121</v>
+        <v>0.02155699789823642</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02222791945808825</v>
+        <v>0.01983976847872372</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.00690434139841578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.006213096299955057</v>
+        <v>0.006213096299955058</v>
       </c>
     </row>
     <row r="8">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001833774667117361</v>
+        <v>0.001786819908346445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002580579052429015</v>
+        <v>0.002143904443975156</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02209247139237969</v>
+        <v>0.0210744711414723</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0202907759764591</v>
+        <v>0.01835057658736881</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01446834640112966</v>
+        <v>0.01364470140797323</v>
       </c>
     </row>
     <row r="10">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002009910508244824</v>
+        <v>0.001614000265624441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001820241261870537</v>
+        <v>0.001692118568516568</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.009803608968576048</v>
+        <v>0.009679293263092527</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.012815401342295</v>
+        <v>0.01272856931138728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.007992128126358052</v>
+        <v>0.008628977198685526</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008592116995998126</v>
+        <v>0.008089903144152123</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001788683370984711</v>
+        <v>0.001859695212449328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00624409300489583</v>
+        <v>0.006069508459458775</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02948769033252961</v>
+        <v>0.02937065698722418</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01097499598402131</v>
+        <v>0.01252668247726615</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01720264098239262</v>
+        <v>0.01725252367450148</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00754732465182606</v>
+        <v>0.006383564239036016</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01358844146481425</v>
+        <v>0.01245669949160708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0117754392764183</v>
+        <v>0.01140402202053334</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02567292723310797</v>
+        <v>0.02545901136268925</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03315041096173042</v>
+        <v>0.03234964761699504</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02456257327475874</v>
+        <v>0.02422377035990488</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.03578260983725173</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.06205113593968929</v>
+        <v>0.06205113593968928</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.04942401242284296</v>
+        <v>0.04942401242284297</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02390932520196815</v>
+        <v>0.02353599632880358</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.047472425985657</v>
+        <v>0.04671976573373733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04000461443989388</v>
+        <v>0.03941113948717271</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05550643708075439</v>
+        <v>0.05546028965518945</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08274388884095701</v>
+        <v>0.08043959737344424</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06089562303724014</v>
+        <v>0.06199488391485509</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1734577945785643</v>
+        <v>0.172378257409432</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2021195910153655</v>
+        <v>0.2019952323186969</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1969874080105564</v>
+        <v>0.1985769797987835</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2522095972784655</v>
+        <v>0.2500866914753108</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2554579909190131</v>
+        <v>0.2580406238494059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2447430191200393</v>
+        <v>0.2437956510950473</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.04246524877948674</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.03651752654509246</v>
+        <v>0.03651752654509247</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02566911227969762</v>
+        <v>0.02550841957791017</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03775819779883305</v>
+        <v>0.03755090880979461</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03313003311838535</v>
+        <v>0.03292345146399262</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03593580649560927</v>
+        <v>0.03561959450647068</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04777250185007053</v>
+        <v>0.04741277073446185</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04028452132586065</v>
+        <v>0.040406821687683</v>
       </c>
     </row>
     <row r="28">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14167</v>
+        <v>14166</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7618</v>
+        <v>7815</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17122</v>
+        <v>15283</v>
       </c>
     </row>
     <row r="8">
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2525</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10536</v>
+        <v>10050</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10181</v>
+        <v>9207</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14159</v>
+        <v>13353</v>
       </c>
     </row>
     <row r="12">
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1253</v>
+        <v>1006</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2264</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6086</v>
+        <v>6009</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7986</v>
+        <v>7932</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9942</v>
+        <v>10735</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6020</v>
+        <v>5668</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1317</v>
+        <v>1369</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8972</v>
+        <v>8721</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20660</v>
+        <v>20578</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8080</v>
+        <v>9222</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24717</v>
+        <v>24789</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4599</v>
+        <v>3890</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8273</v>
+        <v>7584</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14345</v>
+        <v>13892</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15644</v>
+        <v>15513</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20184</v>
+        <v>19696</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29922</v>
+        <v>29509</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9707</v>
+        <v>9555</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>20821</v>
+        <v>20491</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>33787</v>
+        <v>33286</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22535</v>
+        <v>22516</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>36291</v>
+        <v>35281</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>51431</v>
+        <v>52360</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>53806</v>
+        <v>53471</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>93907</v>
+        <v>93849</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>152627</v>
+        <v>153859</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>78235</v>
+        <v>77576</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>118688</v>
+        <v>119888</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>189629</v>
+        <v>188895</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>90655</v>
+        <v>90087</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>141054</v>
+        <v>140279</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>240768</v>
+        <v>239267</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>126913</v>
+        <v>125797</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>178464</v>
+        <v>177120</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>292763</v>
+        <v>293652</v>
       </c>
     </row>
     <row r="36">
